--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3815.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3815.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.618137978580108</v>
+        <v>6.848583221435547</v>
       </c>
       <c r="B1">
-        <v>2.121922287626951</v>
+        <v>5.535118579864502</v>
       </c>
       <c r="C1">
-        <v>3.324636989770525</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>5.146608394539812</v>
+        <v>3.818385362625122</v>
       </c>
       <c r="E1">
-        <v>0.5503904086886789</v>
+        <v>1.964761137962341</v>
       </c>
     </row>
   </sheetData>
